--- a/spear-dev-board/PnP file.xlsx
+++ b/spear-dev-board/PnP file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gerber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\pcb_designs\spear-dev-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18219D0A-76BD-4CCC-AE71-B744B7F189A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80194889-D3BD-4A6E-86DA-0B98B76CA2D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
     <t>X2</t>
   </si>
   <si>
-    <t>g</t>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E38"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/spear-dev-board/PnP file.xlsx
+++ b/spear-dev-board/PnP file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\pcb_designs\spear-dev-board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80194889-D3BD-4A6E-86DA-0B98B76CA2D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE13F1-FA30-4F48-B5F6-29F34B80C081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14160" yWindow="3948" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -806,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>225</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -874,7 +874,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1129,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="E36">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5">
